--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,6 +76,18 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.991+/-0.0</t>
   </si>
   <si>
@@ -133,7 +145,7 @@
     <t>0.016</t>
   </si>
   <si>
-    <t>0.185+/-0.032</t>
+    <t>0.249+/-0.038</t>
   </si>
   <si>
     <t>0.62+/-0.016</t>
@@ -163,823 +175,835 @@
     <t>0.517</t>
   </si>
   <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.692+/-0.005</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.292+/-0.003</t>
+  </si>
+  <si>
+    <t>0.288+/-0.023</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.372+/-0.014</t>
+  </si>
+  <si>
+    <t>0.365+/-0.03</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.006</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.726+/-0.039</t>
+  </si>
+  <si>
+    <t>0.397+/-0.051</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.402+/-0.041</t>
+  </si>
+  <si>
+    <t>0.22+/-0.068</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>4.513+/-1.037</t>
+  </si>
+  <si>
+    <t>0.853+/-0.003</t>
+  </si>
+  <si>
+    <t>0.836+/-0.042</t>
+  </si>
+  <si>
+    <t>0.365+/-0.032</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.341+/-0.022</t>
+  </si>
+  <si>
+    <t>0.146+/-0.026</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.08+/-0.006</t>
+  </si>
+  <si>
+    <t>0.848+/-0.004</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.833+/-0.059</t>
+  </si>
+  <si>
+    <t>0.374+/-0.065</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.311+/-0.034</t>
+  </si>
+  <si>
+    <t>0.135+/-0.037</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.094+/-0.004</t>
+  </si>
+  <si>
+    <t>0.808+/-0.001</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705+/-0.054</t>
+  </si>
+  <si>
+    <t>0.558+/-0.103</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.087+/-0.021</t>
+  </si>
+  <si>
+    <t>0.071+/-0.035</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>16.91+/-1.751</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.992+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.0</t>
+  </si>
+  <si>
+    <t>0.841</t>
+  </si>
+  <si>
+    <t>0.994+/-0.018</t>
+  </si>
+  <si>
+    <t>0.467+/-0.084</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.953+/-0.016</t>
+  </si>
+  <si>
+    <t>0.106+/-0.033</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.466+/-0.036</t>
+  </si>
+  <si>
+    <t>0.546+/-0.311</t>
+  </si>
+  <si>
+    <t>0.022+/-0.005</t>
+  </si>
+  <si>
+    <t>0.021+/-0.014</t>
+  </si>
+  <si>
+    <t>0.324+/-0.065</t>
+  </si>
+  <si>
+    <t>0.689+/-0.008</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.241+/-0.003</t>
+  </si>
+  <si>
+    <t>0.239+/-0.026</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.499+/-0.014</t>
+  </si>
+  <si>
+    <t>0.493+/-0.04</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.011+/-0.003</t>
+  </si>
+  <si>
+    <t>0.739+/-0.004</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.241+/-0.005</t>
+  </si>
+  <si>
+    <t>0.241+/-0.031</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.344+/-0.014</t>
+  </si>
+  <si>
+    <t>0.344+/-0.046</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.878+/-0.005</t>
+  </si>
+  <si>
+    <t>0.822+/-0.0</t>
+  </si>
+  <si>
+    <t>0.828</t>
+  </si>
+  <si>
+    <t>0.721+/-0.088</t>
+  </si>
+  <si>
+    <t>0.321+/-0.072</t>
+  </si>
+  <si>
+    <t>0.278</t>
+  </si>
+  <si>
+    <t>0.335+/-0.082</t>
+  </si>
+  <si>
+    <t>0.156+/-0.049</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>5.799+/-1.961</t>
+  </si>
+  <si>
+    <t>0.891+/-0.004</t>
+  </si>
+  <si>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.827</t>
+  </si>
+  <si>
+    <t>0.902+/-0.046</t>
+  </si>
+  <si>
+    <t>0.369+/-0.062</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.31+/-0.037</t>
+  </si>
+  <si>
+    <t>0.121+/-0.034</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.094+/-0.002</t>
+  </si>
+  <si>
+    <t>0.892+/-0.003</t>
+  </si>
+  <si>
+    <t>0.832+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.906+/-0.03</t>
+  </si>
+  <si>
+    <t>0.33+/-0.055</t>
+  </si>
+  <si>
+    <t>0.327</t>
+  </si>
+  <si>
+    <t>0.315+/-0.027</t>
+  </si>
+  <si>
+    <t>0.113+/-0.023</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.11+/-0.017</t>
+  </si>
+  <si>
+    <t>0.855+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.741+/-0.05</t>
+  </si>
+  <si>
+    <t>0.538+/-0.257</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.051+/-0.007</t>
+  </si>
+  <si>
+    <t>0.031+/-0.01</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>13.174+/-1.86</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.392+/-0.044</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.991+/-0.001</t>
+  </si>
+  <si>
+    <t>0.138+/-0.022</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.558+/-0.015</t>
+  </si>
+  <si>
+    <t>0.531+/-0.109</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.047+/-0.004</t>
+  </si>
+  <si>
+    <t>0.044+/-0.014</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.153+/-0.038</t>
+  </si>
+  <si>
+    <t>0.687+/-0.002</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.392+/-0.004</t>
+  </si>
+  <si>
+    <t>0.393+/-0.031</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.237+/-0.007</t>
+  </si>
+  <si>
+    <t>0.237+/-0.021</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.01+/-0.004</t>
+  </si>
+  <si>
+    <t>0.632+/-0.001</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.637</t>
+  </si>
+  <si>
+    <t>0.344+/-0.003</t>
+  </si>
+  <si>
+    <t>0.342+/-0.022</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.364+/-0.008</t>
+  </si>
+  <si>
+    <t>0.36+/-0.02</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.778+/-0.009</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.73+/-0.04</t>
+  </si>
+  <si>
+    <t>0.388+/-0.049</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.32+/-0.053</t>
+  </si>
+  <si>
+    <t>0.169+/-0.038</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>7.879+/-2.08</t>
+  </si>
+  <si>
+    <t>0.813+/-0.01</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.88+/-0.02</t>
+  </si>
+  <si>
+    <t>0.356+/-0.043</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.377+/-0.039</t>
+  </si>
+  <si>
+    <t>0.155+/-0.032</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.092+/-0.003</t>
+  </si>
+  <si>
+    <t>0.791+/-0.005</t>
+  </si>
+  <si>
+    <t>0.7+/-0.0</t>
+  </si>
+  <si>
+    <t>0.816+/-0.021</t>
+  </si>
+  <si>
+    <t>0.393+/-0.04</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.315+/-0.02</t>
+  </si>
+  <si>
+    <t>0.153+/-0.016</t>
+  </si>
+  <si>
+    <t>0.121+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.001</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.841+/-0.01</t>
+  </si>
+  <si>
+    <t>0.565+/-0.101</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.066+/-0.004</t>
+  </si>
+  <si>
+    <t>0.035+/-0.008</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>21.195+/-2.14</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.665+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.395+/-0.041</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>0.99+/-0.001</t>
+  </si>
+  <si>
+    <t>0.161+/-0.019</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.695+/-0.001</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.56+/-0.013</t>
+  </si>
+  <si>
+    <t>0.533+/-0.084</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.042+/-0.005</t>
+  </si>
+  <si>
+    <t>0.039+/-0.009</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.094+/-0.017</t>
+  </si>
+  <si>
+    <t>0.654+/-0.002</t>
+  </si>
+  <si>
+    <t>0.654+/-0.0</t>
+  </si>
+  <si>
+    <t>0.653</t>
+  </si>
+  <si>
+    <t>0.403+/-0.005</t>
+  </si>
+  <si>
+    <t>0.402+/-0.036</t>
+  </si>
+  <si>
+    <t>0.403</t>
+  </si>
+  <si>
+    <t>0.252+/-0.005</t>
+  </si>
+  <si>
+    <t>0.252+/-0.025</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.618+/-0.002</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.374+/-0.003</t>
+  </si>
+  <si>
+    <t>0.373+/-0.02</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.356+/-0.004</t>
+  </si>
+  <si>
+    <t>0.354+/-0.024</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
     <t>0.006+/-0.001</t>
   </si>
   <si>
-    <t>0.692+/-0.005</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.292+/-0.003</t>
-  </si>
-  <si>
-    <t>0.288+/-0.023</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.372+/-0.014</t>
-  </si>
-  <si>
-    <t>0.365+/-0.03</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.845+/-0.005</t>
-  </si>
-  <si>
-    <t>0.786+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.724+/-0.047</t>
-  </si>
-  <si>
-    <t>0.44+/-0.038</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.38+/-0.064</t>
-  </si>
-  <si>
-    <t>0.224+/-0.055</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>3.225+/-0.534</t>
-  </si>
-  <si>
-    <t>0.854+/-0.003</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.782</t>
-  </si>
-  <si>
-    <t>0.834+/-0.039</t>
-  </si>
-  <si>
-    <t>0.362+/-0.051</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.343+/-0.02</t>
-  </si>
-  <si>
-    <t>0.144+/-0.027</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>0.075+/-0.007</t>
-  </si>
-  <si>
-    <t>0.848+/-0.004</t>
-  </si>
-  <si>
-    <t>0.779+/-0.0</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.83+/-0.056</t>
-  </si>
-  <si>
-    <t>0.372+/-0.061</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.315+/-0.032</t>
-  </si>
-  <si>
-    <t>0.138+/-0.036</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.087+/-0.005</t>
-  </si>
-  <si>
-    <t>0.808+/-0.001</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.705+/-0.054</t>
-  </si>
-  <si>
-    <t>0.558+/-0.103</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.087+/-0.021</t>
-  </si>
-  <si>
-    <t>0.071+/-0.035</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>11.206+/-0.337</t>
-  </si>
-  <si>
-    <t>0.992+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.0</t>
-  </si>
-  <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.994+/-0.018</t>
-  </si>
-  <si>
-    <t>0.467+/-0.084</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.953+/-0.016</t>
-  </si>
-  <si>
-    <t>0.106+/-0.033</t>
-  </si>
-  <si>
-    <t>0.079</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.466+/-0.036</t>
-  </si>
-  <si>
-    <t>0.546+/-0.311</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.022+/-0.005</t>
-  </si>
-  <si>
-    <t>0.021+/-0.014</t>
-  </si>
-  <si>
-    <t>0.244+/-0.033</t>
-  </si>
-  <si>
-    <t>0.689+/-0.008</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.241+/-0.003</t>
-  </si>
-  <si>
-    <t>0.239+/-0.026</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.499+/-0.014</t>
-  </si>
-  <si>
-    <t>0.493+/-0.04</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.739+/-0.004</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.241+/-0.005</t>
-  </si>
-  <si>
-    <t>0.241+/-0.031</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.344+/-0.014</t>
-  </si>
-  <si>
-    <t>0.344+/-0.046</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.88+/-0.006</t>
-  </si>
-  <si>
-    <t>0.833+/-0.0</t>
-  </si>
-  <si>
-    <t>0.839</t>
-  </si>
-  <si>
-    <t>0.719+/-0.061</t>
-  </si>
-  <si>
-    <t>0.383+/-0.076</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.334+/-0.059</t>
-  </si>
-  <si>
-    <t>0.174+/-0.06</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>3.231+/-0.532</t>
-  </si>
-  <si>
-    <t>0.891+/-0.004</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.828</t>
-  </si>
-  <si>
-    <t>0.906+/-0.046</t>
-  </si>
-  <si>
-    <t>0.372+/-0.057</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t>0.308+/-0.037</t>
-  </si>
-  <si>
-    <t>0.12+/-0.035</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.073+/-0.006</t>
-  </si>
-  <si>
-    <t>0.892+/-0.003</t>
-  </si>
-  <si>
-    <t>0.831+/-0.0</t>
-  </si>
-  <si>
-    <t>0.831</t>
-  </si>
-  <si>
-    <t>0.902+/-0.032</t>
-  </si>
-  <si>
-    <t>0.323+/-0.055</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.316+/-0.028</t>
-  </si>
-  <si>
-    <t>0.111+/-0.027</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.741+/-0.05</t>
-  </si>
-  <si>
-    <t>0.538+/-0.257</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.051+/-0.007</t>
-  </si>
-  <si>
-    <t>0.031+/-0.01</t>
-  </si>
-  <si>
-    <t>0.018</t>
-  </si>
-  <si>
-    <t>9.065+/-0.094</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.703</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.406+/-0.045</t>
-  </si>
-  <si>
-    <t>0.991+/-0.001</t>
-  </si>
-  <si>
-    <t>0.15+/-0.017</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.725+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544+/-0.022</t>
-  </si>
-  <si>
-    <t>0.511+/-0.094</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.045+/-0.004</t>
-  </si>
-  <si>
-    <t>0.043+/-0.012</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.093+/-0.021</t>
-  </si>
-  <si>
-    <t>0.692+/-0.002</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.401+/-0.004</t>
-  </si>
-  <si>
-    <t>0.4+/-0.03</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.229+/-0.005</t>
-  </si>
-  <si>
-    <t>0.225+/-0.018</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.632+/-0.002</t>
-  </si>
-  <si>
-    <t>0.632+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.343+/-0.002</t>
-  </si>
-  <si>
-    <t>0.342+/-0.02</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.358+/-0.006</t>
-  </si>
-  <si>
-    <t>0.356+/-0.019</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.006+/-0.0</t>
-  </si>
-  <si>
-    <t>0.768+/-0.01</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.753+/-0.042</t>
-  </si>
-  <si>
-    <t>0.406+/-0.052</t>
-  </si>
-  <si>
-    <t>0.245+/-0.056</t>
-  </si>
-  <si>
-    <t>0.129+/-0.037</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>3.538+/-0.758</t>
-  </si>
-  <si>
-    <t>0.813+/-0.009</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.887+/-0.029</t>
-  </si>
-  <si>
-    <t>0.35+/-0.035</t>
+    <t>0.747+/-0.007</t>
+  </si>
+  <si>
+    <t>0.668+/-0.0</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.724+/-0.027</t>
+  </si>
+  <si>
+    <t>0.401+/-0.041</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.292+/-0.028</t>
+  </si>
+  <si>
+    <t>0.154+/-0.012</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>4.5+/-1.012</t>
+  </si>
+  <si>
+    <t>0.771+/-0.007</t>
+  </si>
+  <si>
+    <t>0.669+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.85+/-0.027</t>
+  </si>
+  <si>
+    <t>0.401+/-0.035</t>
   </si>
   <si>
     <t>0.419</t>
   </si>
   <si>
-    <t>0.374+/-0.042</t>
-  </si>
-  <si>
-    <t>0.158+/-0.026</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.067+/-0.006</t>
-  </si>
-  <si>
-    <t>0.79+/-0.005</t>
-  </si>
-  <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
-    <t>0.698</t>
-  </si>
-  <si>
-    <t>0.812+/-0.04</t>
-  </si>
-  <si>
-    <t>0.391+/-0.026</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>0.315+/-0.028</t>
-  </si>
-  <si>
-    <t>0.157+/-0.023</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>0.09+/-0.014</t>
-  </si>
-  <si>
-    <t>0.737+/-0.001</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.828+/-0.023</t>
-  </si>
-  <si>
-    <t>0.561+/-0.124</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.062+/-0.003</t>
-  </si>
-  <si>
-    <t>0.034+/-0.007</t>
-  </si>
-  <si>
-    <t>15.188+/-1.734</t>
-  </si>
-  <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.392+/-0.036</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.99+/-0.001</t>
-  </si>
-  <si>
-    <t>0.161+/-0.013</t>
-  </si>
-  <si>
-    <t>0.133</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.695+/-0.001</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.693</t>
-  </si>
-  <si>
-    <t>0.584+/-0.017</t>
-  </si>
-  <si>
-    <t>0.549+/-0.106</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.037+/-0.003</t>
-  </si>
-  <si>
-    <t>0.034+/-0.009</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.089+/-0.016</t>
-  </si>
-  <si>
-    <t>0.645+/-0.003</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.386+/-0.005</t>
-  </si>
-  <si>
-    <t>0.385+/-0.032</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.254+/-0.004</t>
-  </si>
-  <si>
-    <t>0.255+/-0.026</t>
-  </si>
-  <si>
-    <t>0.267</t>
-  </si>
-  <si>
-    <t>0.617+/-0.001</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.37+/-0.002</t>
-  </si>
-  <si>
-    <t>0.369+/-0.017</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.348+/-0.004</t>
-  </si>
-  <si>
-    <t>0.346+/-0.019</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.743+/-0.009</t>
-  </si>
-  <si>
-    <t>0.662+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.706+/-0.042</t>
-  </si>
-  <si>
-    <t>0.39+/-0.061</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.292+/-0.047</t>
-  </si>
-  <si>
-    <t>0.175+/-0.044</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>3.215+/-0.653</t>
-  </si>
-  <si>
-    <t>0.766+/-0.006</t>
+    <t>0.311+/-0.024</t>
+  </si>
+  <si>
+    <t>0.148+/-0.018</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
+    <t>0.076+/-0.011</t>
+  </si>
+  <si>
+    <t>0.746+/-0.006</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
   </si>
   <si>
     <t>0.677</t>
   </si>
   <si>
-    <t>0.845+/-0.048</t>
-  </si>
-  <si>
-    <t>0.374+/-0.051</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.297+/-0.036</t>
-  </si>
-  <si>
-    <t>0.135+/-0.033</t>
-  </si>
-  <si>
-    <t>0.124</t>
-  </si>
-  <si>
-    <t>0.067+/-0.005</t>
-  </si>
-  <si>
-    <t>0.744+/-0.004</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.784+/-0.055</t>
-  </si>
-  <si>
-    <t>0.389+/-0.05</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.241+/-0.037</t>
-  </si>
-  <si>
-    <t>0.13+/-0.029</t>
-  </si>
-  <si>
-    <t>0.092</t>
-  </si>
-  <si>
-    <t>0.078+/-0.001</t>
-  </si>
-  <si>
-    <t>0.704+/-0.001</t>
+    <t>0.791+/-0.043</t>
+  </si>
+  <si>
+    <t>0.396+/-0.062</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.243+/-0.03</t>
+  </si>
+  <si>
+    <t>0.129+/-0.03</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.097+/-0.011</t>
+  </si>
+  <si>
+    <t>0.706+/-0.001</t>
   </si>
   <si>
     <t>0.695+/-0.0</t>
   </si>
   <si>
-    <t>0.903+/-0.012</t>
-  </si>
-  <si>
-    <t>0.644+/-0.105</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.044+/-0.004</t>
-  </si>
-  <si>
-    <t>0.024+/-0.008</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>15.333+/-0.546</t>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.843+/-0.031</t>
+  </si>
+  <si>
+    <t>0.582+/-0.139</t>
+  </si>
+  <si>
+    <t>0.058+/-0.005</t>
+  </si>
+  <si>
+    <t>0.033+/-0.01</t>
+  </si>
+  <si>
+    <t>22.97+/-2.826</t>
   </si>
 </sst>
 </file>
@@ -1380,28 +1404,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>0.7986820871436255</v>
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1409,31 +1433,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>0.7986820871436255</v>
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1441,31 +1465,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1473,31 +1497,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1505,31 +1529,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1537,31 +1561,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1569,31 +1593,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1601,31 +1625,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1633,31 +1657,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1665,31 +1689,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1739,31 +1763,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2">
-        <v>0.8500537923614847</v>
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1774,28 +1798,28 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3">
-        <v>0.8500537923614847</v>
+        <v>159</v>
+      </c>
+      <c r="J3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1806,28 +1830,28 @@
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1835,31 +1859,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="J5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1867,31 +1891,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="J6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1899,31 +1923,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1931,31 +1955,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1963,31 +1987,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1995,31 +2019,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2027,31 +2051,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2101,31 +2125,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2">
-        <v>0.7231038192576654</v>
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2133,31 +2157,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3">
-        <v>0.7231038192576654</v>
+        <v>238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2165,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2197,31 +2221,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2229,31 +2253,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2261,31 +2285,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="J7" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2293,31 +2317,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2325,31 +2349,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="J9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2357,31 +2381,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2389,31 +2413,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="J11" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2463,31 +2487,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J2">
-        <v>0.6919042495965573</v>
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2495,31 +2519,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J3">
-        <v>0.6919042495965573</v>
+        <v>312</v>
+      </c>
+      <c r="J3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2527,31 +2551,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
         <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>313</v>
+      </c>
+      <c r="J4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2559,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
         <v>314</v>
       </c>
-      <c r="J5">
-        <v>0</v>
+      <c r="J5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2591,31 +2615,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I6" t="s">
         <v>315</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2623,31 +2647,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
         <v>316</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2655,31 +2679,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
         <v>317</v>
       </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="J8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2687,31 +2711,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
         <v>318</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2719,31 +2743,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I10" t="s">
         <v>319</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="J10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2751,31 +2775,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="J11" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="319">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -115,421 +115,424 @@
     <t>0.109</t>
   </si>
   <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.536+/-0.015</t>
+  </si>
+  <si>
+    <t>0.472+/-0.076</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.049+/-0.017</t>
+  </si>
+  <si>
+    <t>0.045+/-0.025</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.177+/-0.016</t>
+  </si>
+  <si>
+    <t>0.62+/-0.016</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.279+/-0.005</t>
+  </si>
+  <si>
+    <t>0.278+/-0.017</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.559+/-0.028</t>
+  </si>
+  <si>
+    <t>0.559+/-0.035</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692+/-0.005</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.292+/-0.003</t>
+  </si>
+  <si>
+    <t>0.288+/-0.023</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.372+/-0.014</t>
+  </si>
+  <si>
+    <t>0.365+/-0.03</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.846+/-0.003</t>
+  </si>
+  <si>
+    <t>0.785+/-0.0</t>
+  </si>
+  <si>
+    <t>0.769</t>
+  </si>
+  <si>
+    <t>0.734+/-0.051</t>
+  </si>
+  <si>
+    <t>0.441+/-0.028</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.38+/-0.073</t>
+  </si>
+  <si>
+    <t>0.226+/-0.063</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>3.495+/-0.649</t>
+  </si>
+  <si>
+    <t>0.854+/-0.003</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.835+/-0.04</t>
+  </si>
+  <si>
+    <t>0.364+/-0.045</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>0.342+/-0.02</t>
+  </si>
+  <si>
+    <t>0.148+/-0.021</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.074+/-0.006</t>
+  </si>
+  <si>
+    <t>0.848+/-0.004</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831+/-0.057</t>
+  </si>
+  <si>
+    <t>0.371+/-0.069</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.312+/-0.034</t>
+  </si>
+  <si>
+    <t>0.133+/-0.039</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.084+/-0.003</t>
+  </si>
+  <si>
+    <t>0.808+/-0.001</t>
+  </si>
+  <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705+/-0.054</t>
+  </si>
+  <si>
+    <t>0.558+/-0.103</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.087+/-0.021</t>
+  </si>
+  <si>
+    <t>0.071+/-0.035</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>10.475+/-0.117</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.992+/-0.001</t>
+  </si>
+  <si>
+    <t>0.847+/-0.0</t>
+  </si>
+  <si>
+    <t>0.844</t>
+  </si>
+  <si>
+    <t>0.982+/-0.028</t>
+  </si>
+  <si>
+    <t>0.464+/-0.062</t>
+  </si>
+  <si>
+    <t>0.404</t>
+  </si>
+  <si>
+    <t>0.964+/-0.024</t>
+  </si>
+  <si>
+    <t>0.111+/-0.028</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
     <t>0.003+/-0.0</t>
   </si>
   <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.797</t>
-  </si>
-  <si>
-    <t>0.536+/-0.015</t>
-  </si>
-  <si>
-    <t>0.472+/-0.076</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.049+/-0.017</t>
-  </si>
-  <si>
-    <t>0.045+/-0.025</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>0.249+/-0.038</t>
-  </si>
-  <si>
-    <t>0.62+/-0.016</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.279+/-0.005</t>
-  </si>
-  <si>
-    <t>0.278+/-0.017</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.559+/-0.028</t>
-  </si>
-  <si>
-    <t>0.559+/-0.035</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.692+/-0.005</t>
-  </si>
-  <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.292+/-0.003</t>
-  </si>
-  <si>
-    <t>0.288+/-0.023</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.372+/-0.014</t>
-  </si>
-  <si>
-    <t>0.365+/-0.03</t>
-  </si>
-  <si>
-    <t>0.317</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.006</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.726+/-0.039</t>
-  </si>
-  <si>
-    <t>0.397+/-0.051</t>
-  </si>
-  <si>
-    <t>0.374</t>
-  </si>
-  <si>
-    <t>0.402+/-0.041</t>
-  </si>
-  <si>
-    <t>0.22+/-0.068</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>4.513+/-1.037</t>
-  </si>
-  <si>
-    <t>0.853+/-0.003</t>
-  </si>
-  <si>
-    <t>0.836+/-0.042</t>
-  </si>
-  <si>
-    <t>0.365+/-0.032</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.341+/-0.022</t>
-  </si>
-  <si>
-    <t>0.146+/-0.026</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.08+/-0.006</t>
-  </si>
-  <si>
-    <t>0.848+/-0.004</t>
-  </si>
-  <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.833+/-0.059</t>
-  </si>
-  <si>
-    <t>0.374+/-0.065</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.311+/-0.034</t>
-  </si>
-  <si>
-    <t>0.135+/-0.037</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.094+/-0.004</t>
-  </si>
-  <si>
-    <t>0.808+/-0.001</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705+/-0.054</t>
-  </si>
-  <si>
-    <t>0.558+/-0.103</t>
-  </si>
-  <si>
-    <t>0.478</t>
-  </si>
-  <si>
-    <t>0.087+/-0.021</t>
-  </si>
-  <si>
-    <t>0.071+/-0.035</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>16.91+/-1.751</t>
-  </si>
-  <si>
-    <t>0.85+/-0.0</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.992+/-0.001</t>
-  </si>
-  <si>
     <t>0.848+/-0.0</t>
   </si>
   <si>
-    <t>0.841</t>
-  </si>
-  <si>
-    <t>0.994+/-0.018</t>
-  </si>
-  <si>
-    <t>0.467+/-0.084</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.953+/-0.016</t>
-  </si>
-  <si>
-    <t>0.106+/-0.033</t>
-  </si>
-  <si>
-    <t>0.079</t>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.458+/-0.04</t>
+  </si>
+  <si>
+    <t>0.43+/-0.299</t>
+  </si>
+  <si>
+    <t>0.021+/-0.005</t>
+  </si>
+  <si>
+    <t>0.017+/-0.011</t>
+  </si>
+  <si>
+    <t>0.219+/-0.021</t>
+  </si>
+  <si>
+    <t>0.69+/-0.008</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.243+/-0.003</t>
+  </si>
+  <si>
+    <t>0.242+/-0.027</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.503+/-0.015</t>
+  </si>
+  <si>
+    <t>0.499+/-0.044</t>
+  </si>
+  <si>
+    <t>0.491</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.743+/-0.005</t>
+  </si>
+  <si>
+    <t>0.743+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.245+/-0.004</t>
+  </si>
+  <si>
+    <t>0.246+/-0.034</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.343+/-0.009</t>
+  </si>
+  <si>
+    <t>0.344+/-0.047</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.878+/-0.005</t>
+  </si>
+  <si>
+    <t>0.825+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.705+/-0.056</t>
+  </si>
+  <si>
+    <t>0.333+/-0.055</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.336+/-0.058</t>
+  </si>
+  <si>
+    <t>0.163+/-0.044</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>3.815+/-0.574</t>
+  </si>
+  <si>
+    <t>0.892+/-0.004</t>
+  </si>
+  <si>
+    <t>0.837+/-0.0</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.912+/-0.04</t>
+  </si>
+  <si>
+    <t>0.358+/-0.106</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.308+/-0.033</t>
+  </si>
+  <si>
+    <t>0.117+/-0.039</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>0.084+/-0.002</t>
+  </si>
+  <si>
+    <t>0.893+/-0.003</t>
+  </si>
+  <si>
+    <t>0.831+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.908+/-0.039</t>
+  </si>
+  <si>
+    <t>0.323+/-0.052</t>
+  </si>
+  <si>
+    <t>0.347</t>
+  </si>
+  <si>
+    <t>0.32+/-0.024</t>
+  </si>
+  <si>
+    <t>0.119+/-0.036</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.106+/-0.002</t>
+  </si>
+  <si>
+    <t>0.855+/-0.001</t>
   </si>
   <si>
     <t>0.849+/-0.0</t>
   </si>
   <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>0.466+/-0.036</t>
-  </si>
-  <si>
-    <t>0.546+/-0.311</t>
-  </si>
-  <si>
-    <t>0.022+/-0.005</t>
-  </si>
-  <si>
-    <t>0.021+/-0.014</t>
-  </si>
-  <si>
-    <t>0.324+/-0.065</t>
-  </si>
-  <si>
-    <t>0.689+/-0.008</t>
-  </si>
-  <si>
-    <t>0.687+/-0.0</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.241+/-0.003</t>
-  </si>
-  <si>
-    <t>0.239+/-0.026</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.499+/-0.014</t>
-  </si>
-  <si>
-    <t>0.493+/-0.04</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.011+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.004</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.241+/-0.005</t>
-  </si>
-  <si>
-    <t>0.241+/-0.031</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.344+/-0.014</t>
-  </si>
-  <si>
-    <t>0.344+/-0.046</t>
-  </si>
-  <si>
-    <t>0.287</t>
-  </si>
-  <si>
-    <t>0.01+/-0.0</t>
-  </si>
-  <si>
-    <t>0.878+/-0.005</t>
-  </si>
-  <si>
-    <t>0.822+/-0.0</t>
-  </si>
-  <si>
-    <t>0.828</t>
-  </si>
-  <si>
-    <t>0.721+/-0.088</t>
-  </si>
-  <si>
-    <t>0.321+/-0.072</t>
-  </si>
-  <si>
-    <t>0.278</t>
-  </si>
-  <si>
-    <t>0.335+/-0.082</t>
-  </si>
-  <si>
-    <t>0.156+/-0.049</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>5.799+/-1.961</t>
-  </si>
-  <si>
-    <t>0.891+/-0.004</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.827</t>
-  </si>
-  <si>
-    <t>0.902+/-0.046</t>
-  </si>
-  <si>
-    <t>0.369+/-0.062</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.31+/-0.037</t>
-  </si>
-  <si>
-    <t>0.121+/-0.034</t>
-  </si>
-  <si>
-    <t>0.093</t>
-  </si>
-  <si>
-    <t>0.094+/-0.002</t>
-  </si>
-  <si>
-    <t>0.892+/-0.003</t>
-  </si>
-  <si>
-    <t>0.832+/-0.0</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.906+/-0.03</t>
-  </si>
-  <si>
-    <t>0.33+/-0.055</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.315+/-0.027</t>
-  </si>
-  <si>
-    <t>0.113+/-0.023</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>0.11+/-0.017</t>
-  </si>
-  <si>
-    <t>0.855+/-0.001</t>
-  </si>
-  <si>
     <t>0.849</t>
   </si>
   <si>
-    <t>0.741+/-0.05</t>
+    <t>0.743+/-0.049</t>
   </si>
   <si>
     <t>0.538+/-0.257</t>
@@ -538,7 +541,7 @@
     <t>0.455</t>
   </si>
   <si>
-    <t>0.051+/-0.007</t>
+    <t>0.049+/-0.007</t>
   </si>
   <si>
     <t>0.031+/-0.01</t>
@@ -547,7 +550,7 @@
     <t>0.018</t>
   </si>
   <si>
-    <t>13.174+/-1.86</t>
+    <t>8.761+/-0.77</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -556,13 +559,10 @@
     <t>0.723</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
     <t>0.997+/-0.0</t>
   </si>
   <si>
-    <t>0.702+/-0.0</t>
+    <t>0.704+/-0.0</t>
   </si>
   <si>
     <t>0.703</t>
@@ -571,7 +571,7 @@
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.392+/-0.044</t>
+    <t>0.406+/-0.045</t>
   </si>
   <si>
     <t>0.391</t>
@@ -580,205 +580,202 @@
     <t>0.991+/-0.001</t>
   </si>
   <si>
-    <t>0.138+/-0.022</t>
-  </si>
-  <si>
-    <t>0.128</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.726+/-0.001</t>
-  </si>
-  <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558+/-0.015</t>
-  </si>
-  <si>
-    <t>0.531+/-0.109</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.047+/-0.004</t>
-  </si>
-  <si>
-    <t>0.044+/-0.014</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.153+/-0.038</t>
-  </si>
-  <si>
-    <t>0.687+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.392+/-0.004</t>
-  </si>
-  <si>
-    <t>0.393+/-0.031</t>
+    <t>0.15+/-0.017</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.725+/-0.001</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544+/-0.022</t>
+  </si>
+  <si>
+    <t>0.511+/-0.094</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.045+/-0.004</t>
+  </si>
+  <si>
+    <t>0.043+/-0.012</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.087+/-0.02</t>
+  </si>
+  <si>
+    <t>0.692+/-0.002</t>
+  </si>
+  <si>
+    <t>0.691+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.401+/-0.004</t>
+  </si>
+  <si>
+    <t>0.4+/-0.03</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.229+/-0.005</t>
+  </si>
+  <si>
+    <t>0.225+/-0.018</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.632+/-0.002</t>
+  </si>
+  <si>
+    <t>0.632+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.343+/-0.002</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.358+/-0.006</t>
+  </si>
+  <si>
+    <t>0.356+/-0.019</t>
   </si>
   <si>
     <t>0.369</t>
   </si>
   <si>
-    <t>0.237+/-0.007</t>
-  </si>
-  <si>
-    <t>0.237+/-0.021</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.01+/-0.004</t>
-  </si>
-  <si>
-    <t>0.632+/-0.001</t>
-  </si>
-  <si>
-    <t>0.631+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.344+/-0.003</t>
-  </si>
-  <si>
-    <t>0.342+/-0.022</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.364+/-0.008</t>
-  </si>
-  <si>
-    <t>0.36+/-0.02</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.778+/-0.009</t>
-  </si>
-  <si>
-    <t>0.696+/-0.0</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.73+/-0.04</t>
-  </si>
-  <si>
-    <t>0.388+/-0.049</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.32+/-0.053</t>
-  </si>
-  <si>
-    <t>0.169+/-0.038</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>7.879+/-2.08</t>
-  </si>
-  <si>
-    <t>0.813+/-0.01</t>
-  </si>
-  <si>
-    <t>0.689+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.88+/-0.02</t>
-  </si>
-  <si>
-    <t>0.356+/-0.043</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.377+/-0.039</t>
-  </si>
-  <si>
-    <t>0.155+/-0.032</t>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.768+/-0.009</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.714</t>
+  </si>
+  <si>
+    <t>0.729+/-0.049</t>
+  </si>
+  <si>
+    <t>0.401+/-0.062</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>0.268+/-0.057</t>
+  </si>
+  <si>
+    <t>0.151+/-0.051</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>3.555+/-0.958</t>
+  </si>
+  <si>
+    <t>0.813+/-0.009</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.883+/-0.03</t>
+  </si>
+  <si>
+    <t>0.349+/-0.042</t>
+  </si>
+  <si>
+    <t>0.377+/-0.044</t>
+  </si>
+  <si>
+    <t>0.157+/-0.033</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.067+/-0.007</t>
+  </si>
+  <si>
+    <t>0.79+/-0.005</t>
+  </si>
+  <si>
+    <t>0.698+/-0.0</t>
+  </si>
+  <si>
+    <t>0.808+/-0.034</t>
+  </si>
+  <si>
+    <t>0.39+/-0.028</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.318+/-0.025</t>
+  </si>
+  <si>
+    <t>0.158+/-0.021</t>
   </si>
   <si>
     <t>0.167</t>
   </si>
   <si>
-    <t>0.092+/-0.003</t>
-  </si>
-  <si>
-    <t>0.791+/-0.005</t>
-  </si>
-  <si>
-    <t>0.7+/-0.0</t>
-  </si>
-  <si>
-    <t>0.816+/-0.021</t>
-  </si>
-  <si>
-    <t>0.393+/-0.04</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.315+/-0.02</t>
-  </si>
-  <si>
-    <t>0.153+/-0.016</t>
-  </si>
-  <si>
-    <t>0.121+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.001</t>
-  </si>
-  <si>
-    <t>0.719</t>
-  </si>
-  <si>
-    <t>0.841+/-0.01</t>
-  </si>
-  <si>
-    <t>0.565+/-0.101</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.066+/-0.004</t>
-  </si>
-  <si>
-    <t>0.035+/-0.008</t>
-  </si>
-  <si>
-    <t>0.014</t>
-  </si>
-  <si>
-    <t>21.195+/-2.14</t>
+    <t>0.082+/-0.003</t>
+  </si>
+  <si>
+    <t>0.737+/-0.001</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.828+/-0.023</t>
+  </si>
+  <si>
+    <t>0.561+/-0.124</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.062+/-0.003</t>
+  </si>
+  <si>
+    <t>0.034+/-0.007</t>
+  </si>
+  <si>
+    <t>13.634+/-0.14</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -832,7 +829,7 @@
     <t>0.037</t>
   </si>
   <si>
-    <t>0.094+/-0.017</t>
+    <t>0.081+/-0.016</t>
   </si>
   <si>
     <t>0.654+/-0.002</t>
@@ -862,9 +859,6 @@
     <t>0.264</t>
   </si>
   <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
     <t>0.618+/-0.002</t>
   </si>
   <si>
@@ -886,100 +880,76 @@
     <t>0.354+/-0.024</t>
   </si>
   <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.747+/-0.007</t>
-  </si>
-  <si>
-    <t>0.668+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.724+/-0.027</t>
-  </si>
-  <si>
-    <t>0.401+/-0.041</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.292+/-0.028</t>
-  </si>
-  <si>
-    <t>0.154+/-0.012</t>
-  </si>
-  <si>
-    <t>0.178</t>
-  </si>
-  <si>
-    <t>4.5+/-1.012</t>
+    <t>0.742+/-0.007</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.701+/-0.059</t>
+  </si>
+  <si>
+    <t>0.385+/-0.03</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.303+/-0.066</t>
+  </si>
+  <si>
+    <t>0.165+/-0.058</t>
+  </si>
+  <si>
+    <t>3.576+/-0.802</t>
   </si>
   <si>
     <t>0.771+/-0.007</t>
   </si>
   <si>
-    <t>0.669+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.85+/-0.027</t>
-  </si>
-  <si>
-    <t>0.401+/-0.035</t>
-  </si>
-  <si>
-    <t>0.419</t>
+    <t>0.667+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851+/-0.03</t>
+  </si>
+  <si>
+    <t>0.395+/-0.037</t>
+  </si>
+  <si>
+    <t>0.429</t>
   </si>
   <si>
     <t>0.311+/-0.024</t>
   </si>
   <si>
-    <t>0.148+/-0.018</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.076+/-0.011</t>
-  </si>
-  <si>
-    <t>0.746+/-0.006</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.791+/-0.043</t>
-  </si>
-  <si>
-    <t>0.396+/-0.062</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.243+/-0.03</t>
-  </si>
-  <si>
-    <t>0.129+/-0.03</t>
-  </si>
-  <si>
-    <t>0.127</t>
-  </si>
-  <si>
-    <t>0.097+/-0.011</t>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.069+/-0.007</t>
+  </si>
+  <si>
+    <t>0.747+/-0.006</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.782+/-0.04</t>
+  </si>
+  <si>
+    <t>0.396+/-0.057</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>0.249+/-0.025</t>
+  </si>
+  <si>
+    <t>0.133+/-0.029</t>
   </si>
   <si>
     <t>0.706+/-0.001</t>
@@ -1003,7 +973,7 @@
     <t>0.033+/-0.01</t>
   </si>
   <si>
-    <t>22.97+/-2.826</t>
+    <t>16.393+/-2.003</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1392,10 @@
         <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1451,13 +1421,13 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1483,10 +1453,10 @@
         <v>65</v>
       </c>
       <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>83</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -1515,13 +1485,13 @@
         <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1547,13 +1517,13 @@
         <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1579,13 +1549,13 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1611,13 +1581,13 @@
         <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1643,13 +1613,13 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1675,13 +1645,13 @@
         <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1707,13 +1677,13 @@
         <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1763,19 +1733,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
         <v>138</v>
@@ -1795,19 +1765,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
         <v>139</v>
@@ -1819,7 +1789,7 @@
         <v>159</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1827,19 +1797,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
         <v>140</v>
@@ -1851,7 +1821,7 @@
         <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1862,16 +1832,16 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
         <v>141</v>
@@ -1883,7 +1853,7 @@
         <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1894,16 +1864,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
         <v>142</v>
@@ -1915,7 +1885,7 @@
         <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1926,16 +1896,16 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
         <v>143</v>
@@ -1947,7 +1917,7 @@
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1958,16 +1928,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
         <v>144</v>
@@ -1979,7 +1949,7 @@
         <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1990,16 +1960,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
         <v>145</v>
@@ -2011,7 +1981,7 @@
         <v>165</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2022,16 +1992,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
@@ -2043,7 +2013,7 @@
         <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2054,16 +2024,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
         <v>147</v>
@@ -2075,7 +2045,7 @@
         <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2125,16 +2095,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>208</v>
@@ -2146,7 +2116,7 @@
         <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
         <v>245</v>
@@ -2157,16 +2127,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>209</v>
@@ -2178,10 +2148,10 @@
         <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2189,13 +2159,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
         <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>200</v>
@@ -2210,7 +2180,7 @@
         <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
         <v>246</v>
@@ -2227,7 +2197,7 @@
         <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
         <v>201</v>
@@ -2242,7 +2212,7 @@
         <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
         <v>247</v>
@@ -2259,13 +2229,13 @@
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
         <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>221</v>
@@ -2274,7 +2244,7 @@
         <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J6" t="s">
         <v>248</v>
@@ -2291,22 +2261,22 @@
         <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
         <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
         <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
         <v>249</v>
@@ -2323,22 +2293,22 @@
         <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
         <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
         <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J8" t="s">
         <v>250</v>
@@ -2355,22 +2325,22 @@
         <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
         <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
         <v>224</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
         <v>251</v>
@@ -2387,25 +2357,25 @@
         <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
         <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
         <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2413,31 +2383,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
         <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
         <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
         <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2487,31 +2457,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
         <v>311</v>
-      </c>
-      <c r="J2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2519,31 +2489,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
         <v>312</v>
-      </c>
-      <c r="J3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2551,31 +2521,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" t="s">
         <v>313</v>
-      </c>
-      <c r="J4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2589,25 +2559,25 @@
         <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
+        <v>306</v>
+      </c>
+      <c r="J5" t="s">
         <v>314</v>
-      </c>
-      <c r="J5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2618,28 +2588,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I6" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" t="s">
         <v>315</v>
-      </c>
-      <c r="J6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2650,25 +2620,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
         <v>185</v>
@@ -2682,28 +2652,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2714,28 +2684,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2746,25 +2716,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -2775,31 +2745,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
